--- a/GLOBAL/Impactos y Proyecciones Cambio Climático/Vida Humana/Proyeccion Rendimiento Cultivos Global.xlsx
+++ b/GLOBAL/Impactos y Proyecciones Cambio Climático/Vida Humana/Proyeccion Rendimiento Cultivos Global.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\GLOBAL\Impactos y Proyecciones Cambio Climático\Vida Humana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B337606-FB49-4147-895E-C2FA436F214F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB63245F-F3A1-4403-82DF-44856AF9902E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{91C934B2-6D28-443E-A915-CFD8C5BA3E6F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="rendimiento cultivos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B674A038-1F60-41F8-A41E-AA411830A1DE}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
